--- a/empty_aud.xlsx
+++ b/empty_aud.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="362">
   <si>
     <t>num_day</t>
   </si>
@@ -79,874 +79,886 @@
     <t>четная</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 244 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 215 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 330 (С-20) ауд. 342 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 369 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 342 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 341 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 331 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 447 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 334 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 4/5 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 13 (С-20) комп. 4/5 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 13 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 4/5 (С-20)</t>
+    <t xml:space="preserve"> комп. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
@@ -955,33 +967,27 @@
     <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 4/5 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 13 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 4/5 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 13 (С-20) комп. №6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 10 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 13 (С-20) комп. 4/5 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. №6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. №6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 10 (С-20) комп. 4/5 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 239а (С-20)</t>
   </si>
   <si>
@@ -994,30 +1000,33 @@
     <t xml:space="preserve"> комп. 239а (С-20) комп. 256 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 251а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 281 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 246 (С-20) комп. 281 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 246 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 251а (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 256 (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 256 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 281 (С-20)</t>
+    <t xml:space="preserve"> комп. 246 (С-20) комп. 251а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 256 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 239а (С-20) комп. 251а (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20)</t>
   </si>
   <si>
@@ -1048,9 +1057,6 @@
     <t xml:space="preserve"> комп. 320 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 322 (С-20)</t>
   </si>
   <si>
@@ -1060,7 +1066,7 @@
     <t xml:space="preserve"> комп. 349 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 383 (С-20)</t>
+    <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
@@ -1084,7 +1090,7 @@
     <t xml:space="preserve"> комп. 439 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 439 (С-20)</t>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 439 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. (С-20)</t>
@@ -1463,10 +1469,10 @@
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="1" customWidth="1"/>
@@ -1539,13 +1545,16 @@
         <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1571,13 +1580,16 @@
         <v>238</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1603,13 +1615,13 @@
         <v>239</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1635,13 +1647,13 @@
         <v>240</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1667,13 +1679,13 @@
         <v>241</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1699,10 +1711,10 @@
         <v>242</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1728,13 +1740,13 @@
         <v>243</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1760,16 +1772,16 @@
         <v>244</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1794,11 +1806,14 @@
       <c r="G10" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1824,19 +1839,19 @@
         <v>246</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1862,10 +1877,10 @@
         <v>247</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1891,19 +1906,19 @@
         <v>248</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1929,13 +1944,13 @@
         <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1961,19 +1976,19 @@
         <v>250</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1999,16 +2014,16 @@
         <v>251</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2034,19 +2049,19 @@
         <v>252</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2072,10 +2087,10 @@
         <v>253</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2101,16 +2116,13 @@
         <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2136,16 +2148,13 @@
         <v>255</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2171,13 +2180,10 @@
         <v>256</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2203,16 +2209,16 @@
         <v>257</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2238,16 +2244,16 @@
         <v>258</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2273,19 +2279,19 @@
         <v>259</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2311,19 +2317,19 @@
         <v>260</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2349,13 +2355,19 @@
         <v>261</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2381,13 +2393,19 @@
         <v>262</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2416,10 +2434,10 @@
         <v>315</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2445,13 +2463,13 @@
         <v>264</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2477,13 +2495,13 @@
         <v>265</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2509,16 +2527,19 @@
         <v>266</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2544,13 +2565,10 @@
         <v>267</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2576,16 +2594,16 @@
         <v>268</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2611,19 +2629,19 @@
         <v>269</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2652,10 +2670,10 @@
         <v>318</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2681,19 +2699,19 @@
         <v>271</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2719,16 +2737,16 @@
         <v>272</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2754,19 +2772,19 @@
         <v>273</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2792,10 +2810,13 @@
         <v>274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2821,16 +2842,16 @@
         <v>275</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2856,7 +2877,10 @@
         <v>276</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2882,19 +2906,19 @@
         <v>277</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2920,10 +2944,10 @@
         <v>278</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2949,19 +2973,16 @@
         <v>279</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2987,16 +3008,13 @@
         <v>280</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3022,13 +3040,16 @@
         <v>281</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3054,16 +3075,16 @@
         <v>282</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3089,16 +3110,16 @@
         <v>283</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3124,19 +3145,19 @@
         <v>284</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3165,16 +3186,16 @@
         <v>319</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3200,16 +3221,16 @@
         <v>286</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3235,13 +3256,13 @@
         <v>287</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3267,16 +3288,13 @@
         <v>288</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3301,14 +3319,11 @@
       <c r="G54" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3334,19 +3349,16 @@
         <v>290</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3375,13 +3387,13 @@
         <v>310</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3407,16 +3419,16 @@
         <v>292</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3442,16 +3454,13 @@
         <v>293</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3480,13 +3489,13 @@
         <v>310</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3512,19 +3521,19 @@
         <v>295</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3550,19 +3559,19 @@
         <v>296</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3588,13 +3597,13 @@
         <v>297</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3620,10 +3629,10 @@
         <v>298</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3652,7 +3661,7 @@
         <v>310</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3678,7 +3687,7 @@
         <v>300</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3701,13 +3710,13 @@
         <v>229</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3730,16 +3739,16 @@
         <v>230</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3762,13 +3771,13 @@
         <v>231</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3791,10 +3800,10 @@
         <v>232</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3817,19 +3826,19 @@
         <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3852,19 +3861,22 @@
         <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>315</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3887,19 +3899,19 @@
         <v>235</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>315</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3922,22 +3934,22 @@
         <v>236</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>315</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/empty_aud.xlsx
+++ b/empty_aud.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="363">
   <si>
     <t>num_day</t>
   </si>
@@ -79,13 +79,13 @@
     <t>четная</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
@@ -94,13 +94,13 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -109,10 +109,10 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -121,37 +121,37 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
@@ -169,13 +169,13 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -190,13 +190,13 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -205,10 +205,10 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
@@ -247,40 +247,40 @@
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
@@ -304,13 +304,13 @@
     <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20)</t>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
@@ -340,10 +340,10 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
@@ -355,10 +355,10 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
@@ -367,10 +367,10 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
@@ -382,13 +382,13 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 266а (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20)</t>
@@ -445,16 +445,16 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
@@ -505,52 +505,52 @@
     <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
@@ -559,172 +559,172 @@
     <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 334 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
@@ -745,10 +745,10 @@
     <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
@@ -769,10 +769,10 @@
     <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
@@ -883,16 +883,16 @@
     <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
@@ -901,16 +901,16 @@
     <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
@@ -931,16 +931,16 @@
     <t xml:space="preserve"> ауд. 409 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 4/5 (С-20) комп. №6 (С-20)</t>
@@ -1036,61 +1036,64 @@
     <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 344 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 344 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 344 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 320 (С-20) комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 344 (С-20) комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 320 (С-20) комп. 344 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 322 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 349 (С-20) комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 349 (С-20)</t>
+    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 322 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 429 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 426а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 429 (С-20) комп. 439 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 439 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 439 (С-20)</t>
+    <t xml:space="preserve"> комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429(С-20) комп. 439 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. (С-20)</t>
@@ -1471,8 +1474,8 @@
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="1" customWidth="1"/>
@@ -1551,10 +1554,10 @@
         <v>338</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1586,10 +1589,10 @@
         <v>338</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1620,8 +1623,11 @@
       <c r="J4" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M4" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1652,8 +1658,11 @@
       <c r="J5" s="1" t="s">
         <v>339</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M5" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1682,10 +1691,13 @@
         <v>310</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1713,8 +1725,11 @@
       <c r="H7" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M7" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1743,10 +1758,13 @@
         <v>324</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1778,10 +1796,13 @@
         <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1810,10 +1831,13 @@
         <v>313</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1844,14 +1868,11 @@
       <c r="I11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1880,7 +1901,10 @@
         <v>314</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1912,13 +1936,13 @@
         <v>327</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1950,7 +1974,10 @@
         <v>328</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1982,13 +2009,13 @@
         <v>328</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2020,10 +2047,13 @@
         <v>329</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2058,10 +2088,10 @@
         <v>338</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2089,8 +2119,11 @@
       <c r="H18" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M18" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2121,8 +2154,11 @@
       <c r="J19" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M19" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2151,10 +2187,10 @@
         <v>315</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2182,8 +2218,11 @@
       <c r="H21" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M21" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2215,10 +2254,13 @@
         <v>329</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2250,10 +2292,13 @@
         <v>329</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2285,13 +2330,13 @@
         <v>330</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2323,13 +2368,13 @@
         <v>330</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2360,14 +2405,11 @@
       <c r="I26" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2402,10 +2444,10 @@
         <v>338</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2433,11 +2475,11 @@
       <c r="H28" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>341</v>
+      <c r="K28" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2468,8 +2510,11 @@
       <c r="J29" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2498,10 +2543,13 @@
         <v>313</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2533,13 +2581,13 @@
         <v>325</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2567,8 +2615,11 @@
       <c r="H32" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="K32" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M32" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2599,11 +2650,11 @@
       <c r="I33" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>342</v>
+      <c r="K33" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2638,10 +2689,10 @@
         <v>347</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2672,8 +2723,11 @@
       <c r="I35" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="K35" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M35" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2705,13 +2759,13 @@
         <v>328</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2745,8 +2799,11 @@
       <c r="J37" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K37" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M37" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2778,13 +2835,13 @@
         <v>329</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2816,7 +2873,10 @@
         <v>329</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2850,8 +2910,11 @@
       <c r="J40" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2882,6 +2945,9 @@
       <c r="J41" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K41" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
@@ -2915,10 +2981,10 @@
         <v>338</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2949,6 +3015,9 @@
       <c r="J43" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K43" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
@@ -2978,11 +3047,14 @@
       <c r="I44" s="1" t="s">
         <v>324</v>
       </c>
+      <c r="J44" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K44" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3011,10 +3083,13 @@
         <v>316</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>338</v>
+        <v>346</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3045,11 +3120,14 @@
       <c r="I46" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="J46" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K46" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3083,8 +3161,11 @@
       <c r="J47" s="1" t="s">
         <v>348</v>
       </c>
+      <c r="K47" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M47" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3115,11 +3196,14 @@
       <c r="I48" s="1" t="s">
         <v>334</v>
       </c>
+      <c r="J48" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="K48" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3154,10 +3238,10 @@
         <v>349</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3189,13 +3273,13 @@
         <v>328</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3227,10 +3311,10 @@
         <v>328</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3264,6 +3348,9 @@
       <c r="J52" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K52" s="1" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
@@ -3293,8 +3380,11 @@
       <c r="J53" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K53" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M53" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3323,7 +3413,10 @@
         <v>329</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3352,13 +3445,13 @@
         <v>309</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3390,10 +3483,10 @@
         <v>324</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3425,10 +3518,13 @@
         <v>329</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3459,8 +3555,11 @@
       <c r="J58" s="1" t="s">
         <v>350</v>
       </c>
+      <c r="K58" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M58" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3492,10 +3591,13 @@
         <v>326</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3527,13 +3629,13 @@
         <v>335</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3565,13 +3667,13 @@
         <v>336</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3602,8 +3704,11 @@
       <c r="J62" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="K62" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M62" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3631,8 +3736,11 @@
       <c r="I63" s="1" t="s">
         <v>325</v>
       </c>
+      <c r="K63" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M63" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3660,8 +3768,11 @@
       <c r="H64" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="K64" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M64" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3686,8 +3797,11 @@
       <c r="G65" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="K65" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M65" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3715,8 +3829,11 @@
       <c r="H66" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="K66" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M66" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3747,8 +3864,11 @@
       <c r="J67" s="1" t="s">
         <v>338</v>
       </c>
+      <c r="K67" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M67" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3776,8 +3896,11 @@
       <c r="H68" s="1" t="s">
         <v>322</v>
       </c>
+      <c r="K68" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M68" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3802,8 +3925,11 @@
       <c r="G69" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="K69" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="M69" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3835,10 +3961,13 @@
         <v>329</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -3870,13 +3999,13 @@
         <v>332</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -3908,10 +4037,13 @@
         <v>329</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -3943,13 +4075,13 @@
         <v>337</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/empty_aud.xlsx
+++ b/empty_aud.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="366">
   <si>
     <t>num_day</t>
   </si>
@@ -79,868 +79,862 @@
     <t>четная</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112(С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 112(С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 349б (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 258а (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 4/5 (С-20) комп. №6 (С-20)</t>
@@ -967,6 +961,9 @@
     <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 4/5 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 13 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
@@ -979,15 +976,15 @@
     <t xml:space="preserve"> комп. 10 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 239а (С-20)</t>
   </si>
   <si>
@@ -1006,15 +1003,21 @@
     <t xml:space="preserve"> комп. 281 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 246 (С-20) комп. 281 (С-20)</t>
+    <t xml:space="preserve"> комп. 246 (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 239а (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 246 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 246 (С-20) комп. 251а (С-20)</t>
   </si>
   <si>
@@ -1036,73 +1039,79 @@
     <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 344 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 383 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 344 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 344 (С-20) комп. 383 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 320 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20)</t>
+    <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 322 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 322 (С-20) комп. 344 (С-20)</t>
+    <t xml:space="preserve"> комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 429(С-20) комп. 439 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 429 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 429(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 429(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 429(С-20) комп. 439 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 439 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> а (С-20) ауд. (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> а (С-20) ауд. (С-20) физ. ФОК (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> а (С-20) физ. ФОК (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. (С-20) физ. ФОК (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> ауд. (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. (С-20) физ. ФОК (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> физ. ФОК (С-20)</t>
   </si>
 </sst>
 </file>
@@ -1472,10 +1481,10 @@
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="1" customWidth="1"/>
@@ -1548,10 +1557,10 @@
         <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>352</v>
@@ -1583,10 +1592,10 @@
         <v>238</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>352</v>
@@ -1618,13 +1627,13 @@
         <v>239</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>360</v>
@@ -1653,13 +1662,13 @@
         <v>240</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>360</v>
@@ -1688,13 +1697,13 @@
         <v>241</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>360</v>
@@ -1723,10 +1732,13 @@
         <v>242</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>360</v>
@@ -1755,13 +1767,13 @@
         <v>243</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>360</v>
@@ -1790,16 +1802,16 @@
         <v>244</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>360</v>
@@ -1828,13 +1840,13 @@
         <v>245</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>360</v>
@@ -1863,13 +1875,16 @@
         <v>246</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>360</v>
@@ -1898,13 +1913,16 @@
         <v>247</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1930,16 +1948,16 @@
         <v>248</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>360</v>
@@ -1968,16 +1986,19 @@
         <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2003,16 +2024,13 @@
         <v>250</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>360</v>
@@ -2041,16 +2059,16 @@
         <v>251</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>360</v>
@@ -2079,16 +2097,16 @@
         <v>252</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>360</v>
@@ -2117,10 +2135,10 @@
         <v>253</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>360</v>
@@ -2149,13 +2167,13 @@
         <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>360</v>
@@ -2184,10 +2202,10 @@
         <v>255</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>360</v>
@@ -2216,10 +2234,10 @@
         <v>256</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>360</v>
@@ -2248,16 +2266,16 @@
         <v>257</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>360</v>
@@ -2286,16 +2304,13 @@
         <v>258</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>360</v>
@@ -2327,13 +2342,13 @@
         <v>315</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>361</v>
@@ -2365,13 +2380,13 @@
         <v>315</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>361</v>
@@ -2400,13 +2415,13 @@
         <v>261</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>360</v>
@@ -2435,16 +2450,16 @@
         <v>262</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>331</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>360</v>
@@ -2473,10 +2488,10 @@
         <v>263</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>360</v>
@@ -2505,13 +2520,13 @@
         <v>264</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>360</v>
@@ -2540,13 +2555,13 @@
         <v>265</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>360</v>
@@ -2572,19 +2587,16 @@
         <v>194</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>360</v>
@@ -2610,13 +2622,16 @@
         <v>195</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>360</v>
@@ -2642,16 +2657,19 @@
         <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>360</v>
@@ -2677,19 +2695,19 @@
         <v>197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>360</v>
@@ -2715,16 +2733,19 @@
         <v>198</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>332</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>360</v>
@@ -2750,19 +2771,19 @@
         <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>361</v>
@@ -2788,19 +2809,19 @@
         <v>200</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>362</v>
@@ -2826,19 +2847,19 @@
         <v>201</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>360</v>
@@ -2864,19 +2885,22 @@
         <v>202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2899,19 +2923,19 @@
         <v>203</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>360</v>
@@ -2937,16 +2961,22 @@
         <v>204</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2969,19 +2999,19 @@
         <v>205</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>326</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>360</v>
@@ -3007,16 +3037,19 @@
         <v>206</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3039,19 +3072,16 @@
         <v>207</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>360</v>
@@ -3077,16 +3107,16 @@
         <v>208</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>360</v>
@@ -3112,19 +3142,19 @@
         <v>209</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>332</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>360</v>
@@ -3150,19 +3180,19 @@
         <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>360</v>
@@ -3188,22 +3218,22 @@
         <v>211</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3226,22 +3256,22 @@
         <v>212</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3264,22 +3294,22 @@
         <v>213</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3302,19 +3332,19 @@
         <v>214</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3337,19 +3367,22 @@
         <v>215</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3372,16 +3405,16 @@
         <v>216</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>360</v>
@@ -3407,16 +3440,19 @@
         <v>217</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3439,16 +3475,16 @@
         <v>218</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>360</v>
@@ -3474,19 +3510,22 @@
         <v>219</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3509,19 +3548,19 @@
         <v>220</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>360</v>
@@ -3547,16 +3586,16 @@
         <v>221</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>360</v>
@@ -3582,19 +3621,19 @@
         <v>222</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>360</v>
@@ -3620,19 +3659,19 @@
         <v>223</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>360</v>
@@ -3658,19 +3697,19 @@
         <v>224</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>360</v>
@@ -3696,16 +3735,13 @@
         <v>225</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="K62" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>361</v>
@@ -3731,13 +3767,13 @@
         <v>226</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>361</v>
@@ -3763,13 +3799,13 @@
         <v>227</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>361</v>
@@ -3795,10 +3831,10 @@
         <v>228</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>361</v>
@@ -3824,13 +3860,13 @@
         <v>229</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>361</v>
@@ -3856,16 +3892,16 @@
         <v>230</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>361</v>
@@ -3891,13 +3927,13 @@
         <v>231</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>322</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>362</v>
@@ -3923,10 +3959,13 @@
         <v>232</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>362</v>
@@ -3952,19 +3991,16 @@
         <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>362</v>
@@ -3990,10 +4026,10 @@
         <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>332</v>
@@ -4002,7 +4038,7 @@
         <v>351</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>362</v>
@@ -4028,19 +4064,19 @@
         <v>235</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>361</v>
@@ -4066,16 +4102,16 @@
         <v>236</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>359</v>

--- a/empty_aud.xlsx
+++ b/empty_aud.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="385">
   <si>
     <t>num_day</t>
   </si>
@@ -79,862 +79,868 @@
     <t>четная</t>
   </si>
   <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 114 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 110 (С-20) ауд. 113 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 117 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №9 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 244 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 262 (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 258а (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 254 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> аб. 329 (С-20) ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453 (С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 418 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 451(С-20) ауд. 453(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+    <t xml:space="preserve"> ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 112 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 131 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.3 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 135 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 111 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 113 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 145Б (С-20) ауд. 183 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 149 (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 110 (С-20) ауд. 113 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 186 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 186 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 114 (С-20) ауд. 128 (С-20) ауд. 130 (С-20) ауд. 131 (С-20) ауд. 135 (С-20) ауд. 139 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 149 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.2 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 145б (С-20) ауд. 147 (С-20) ауд. 183 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №3 (С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 111 (С-20) ауд. 112 (С-20) ауд. 113 (С-20) ауд. 114 (С-20) ауд. 143 (С-20) ауд. 145Б (С-20) ауд. 147 (С-20) ауд. 186 (С-20) ауд. 188.1 (С-20) ауд. 188.2 (С-20) ауд. 188.3 (С-20) ауд. 191 (С-20) ауд. 3 (С-20) ауд. 6 (С-20) ауд. №20 (С-20) ауд. №20(С-20) ауд. №6 (С-20) ауд. №9 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 246 (С-20) ауд. 250 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 206 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 260 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 260 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 261 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 260 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 260 (С-20) ауд. 266а (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 260 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 266а (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215 (С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 262 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 285 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 258а (С-20) ауд. 259 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 266б (С-20) ауд. 269 (С-20) ауд. 273 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 242 (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20) ауд. 283 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 200 (С-20) ауд. 204 (С-20) ауд. 206 (С-20) ауд. 208 (С-20) ауд. 212 (С-20) ауд. 214(С-20) ауд. 215(С-20) ауд. 228 (С-20) ауд. 228(С-20) ауд. 232 (С-20) ауд. 234 (С-20) ауд. 239а (С-20) ауд. 244 (С-20) ауд. 246 (С-20) ауд. 249 (С-20) ауд. 250 (С-20) ауд. 254 (С-20) ауд. 257 (С-20) ауд. 261 (С-20) ауд. 262 (С-20) ауд. 263 (С-20) ауд. 265 (С-20) ауд. 266а (С-20) ауд. 273 (С-20) ауд. 275 (С-20) ауд. 275(С-20) ауд. 279 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 372 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 347 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 365 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 365 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326(С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326(С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 347 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 347 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 359 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 356 (С-20) ауд. 359 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 375 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 381 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 318 (С-20) ауд. 322 (С-20) ауд. 324а (С-20) ауд. 325 (С-20) ауд. 326 (С-20) ауд. 326(С-20) ауд. 328 (С-20) ауд. 330 (С-20) ауд. 330(С-20) ауд. 331 (С-20) ауд. 334 (С-20) ауд. 341 (С-20) ауд. 342(С-20) ауд. 343 (С-20) ауд. 344 (С-20) ауд. 346 (С-20) ауд. 348 (С-20) ауд. 350 (С-20) ауд. 353 (С-20) ауд. 354 (С-20) ауд. 360 (С-20) ауд. 361 (С-20) ауд. 367 (С-20) ауд. 367(С-20) ауд. 369 (С-20) ауд. 370 (С-20) ауд. 372 (С-20) ауд. 379 (С-20) ауд. 389 (С-20) ауд. 399б (С-20) ауд. 399б(С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 449 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 415 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 453 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 455 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 410 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 453 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 453 (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445(С-20) ауд. 447 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409(С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 417 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457 (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. 409 (С-20) ауд. 409(С-20) ауд. 410 (С-20) ауд. 415 (С-20) ауд. 416 (С-20) ауд. 425 (С-20) ауд. 425(С-20) ауд. 426а (С-20) ауд. 433 (С-20) ауд. 439 (С-20) ауд. 441 (С-20) ауд. 442 (С-20) ауд. 442(С-20) ауд. 445 (С-20) ауд. 445(С-20) ауд. 446 (С-20) ауд. 447 (С-20) ауд. 449 (С-20) ауд. 451 (С-20) ауд. 455а (С-20) ауд. 457(С-20) ауд. 459 (С-20) ауд. 463 (С-20) ауд. ЗУС-457 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 4/5 (С-20) комп. №6 (С-20)</t>
@@ -970,69 +976,90 @@
     <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. 4/5 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 10 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 13 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 13 (С-20) комп. 185 (С-20) комп. 4/5 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 10 (С-20) комп. 185 (С-20) комп. 4/5 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 185 (С-20) комп. 4/5 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 10 (С-20) комп. 185 (С-20) комп. 4/5 (С-20) комп. №6 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 251а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 256 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 256 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 251а (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 246 (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
+    <t xml:space="preserve"> комп. 239аа (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 251а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 256 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 256 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 251а (С-20) комп. 256 (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 246 (С-20) комп. 256 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 246 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 251а (С-20) комп. 256 (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 246 (С-20) комп. 251а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 256 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 246 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 246 (С-20) комп. 281 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239аа (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 256 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 239а (С-20) комп. 239аа (С-20) комп. 246 (С-20) комп. 251а (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 246 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 281 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 246 (С-20) комп. 251а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20) комп. 256 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 251а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20) комп. 251а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 239а (С-20) комп. 246 (С-20)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> комп. 343 (С-20)</t>
   </si>
   <si>
@@ -1051,27 +1078,57 @@
     <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 344 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 344 (С-20)</t>
   </si>
   <si>
-    <t xml:space="preserve"> комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 344 (С-20) комп. 383 (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> комп. 320 (С-20) комп. 344 (С-20)</t>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 349 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 343 (С-20) комп. 344 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 343 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 322 (С-20) комп. 343 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 320 (С-20) комп. 322 (С-20) комп. 343 (С-20) комп. 344 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 322 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 349 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> комп. 344 (С-20) комп. 349 (С-20) комп. 383 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 429(С-20)</t>
   </si>
   <si>
@@ -1090,6 +1147,9 @@
     <t xml:space="preserve"> комп. 429(С-20) комп. 439 (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> комп. 426а (С-20) комп. 429 (С-20) комп. 429(С-20) комп. 439 (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> комп. 429 (С-20)</t>
   </si>
   <si>
@@ -1099,19 +1159,16 @@
     <t xml:space="preserve"> а (С-20) ауд. (С-20)</t>
   </si>
   <si>
+    <t xml:space="preserve"> а (С-20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ауд. (С-20)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> а (С-20) ауд. (С-20) физ. ФОК (С-20)</t>
   </si>
   <si>
     <t xml:space="preserve"> а (С-20) физ. ФОК (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> а (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. (С-20) физ. ФОК (С-20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ауд. (С-20)</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1538,10 @@
     <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="36.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="1" customWidth="1"/>
@@ -1557,16 +1614,19 @@
         <v>237</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1592,16 +1652,19 @@
         <v>238</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1627,16 +1690,19 @@
         <v>239</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1662,16 +1728,19 @@
         <v>240</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1697,16 +1766,19 @@
         <v>241</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1732,16 +1804,19 @@
         <v>242</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1767,16 +1842,16 @@
         <v>243</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1802,19 +1877,19 @@
         <v>244</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1840,16 +1915,19 @@
         <v>245</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1875,19 +1953,19 @@
         <v>246</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1913,16 +1991,19 @@
         <v>247</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1948,19 +2029,19 @@
         <v>248</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1986,19 +2067,19 @@
         <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2024,16 +2105,16 @@
         <v>250</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2059,19 +2140,19 @@
         <v>251</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2097,19 +2178,19 @@
         <v>252</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2135,13 +2216,16 @@
         <v>253</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2167,16 +2251,19 @@
         <v>254</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2202,13 +2289,16 @@
         <v>255</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2234,13 +2324,19 @@
         <v>256</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2266,19 +2362,19 @@
         <v>257</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2304,16 +2400,19 @@
         <v>258</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2339,19 +2438,19 @@
         <v>259</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2377,19 +2476,19 @@
         <v>260</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2415,16 +2514,19 @@
         <v>261</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2450,19 +2552,19 @@
         <v>262</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2488,13 +2590,19 @@
         <v>263</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2520,16 +2628,19 @@
         <v>264</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2555,16 +2666,19 @@
         <v>265</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2587,19 +2701,22 @@
         <v>194</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2622,19 +2739,22 @@
         <v>195</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2657,22 +2777,22 @@
         <v>196</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2695,22 +2815,22 @@
         <v>197</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2733,22 +2853,22 @@
         <v>198</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2771,22 +2891,22 @@
         <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2809,22 +2929,22 @@
         <v>200</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2847,22 +2967,22 @@
         <v>201</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2885,22 +3005,22 @@
         <v>202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2923,22 +3043,22 @@
         <v>203</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2961,22 +3081,22 @@
         <v>204</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2999,22 +3119,22 @@
         <v>205</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3037,19 +3157,22 @@
         <v>206</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>310</v>
+        <v>323</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3072,19 +3195,19 @@
         <v>207</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3107,19 +3230,22 @@
         <v>208</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>314</v>
+        <v>325</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3142,22 +3268,22 @@
         <v>209</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3180,22 +3306,22 @@
         <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3218,22 +3344,22 @@
         <v>211</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3256,22 +3382,22 @@
         <v>212</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3294,22 +3420,22 @@
         <v>213</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3332,19 +3458,22 @@
         <v>214</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3367,22 +3496,22 @@
         <v>215</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3405,19 +3534,22 @@
         <v>216</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3440,19 +3572,19 @@
         <v>217</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3475,19 +3607,22 @@
         <v>218</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3510,22 +3645,22 @@
         <v>219</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3548,22 +3683,22 @@
         <v>220</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3586,19 +3721,22 @@
         <v>221</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3621,22 +3759,22 @@
         <v>222</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3659,22 +3797,22 @@
         <v>223</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3697,22 +3835,22 @@
         <v>224</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3735,16 +3873,22 @@
         <v>225</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3767,16 +3911,16 @@
         <v>226</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3799,16 +3943,19 @@
         <v>227</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3831,13 +3978,16 @@
         <v>228</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -3860,16 +4010,19 @@
         <v>229</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -3892,19 +4045,22 @@
         <v>230</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -3927,16 +4083,19 @@
         <v>231</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -3959,16 +4118,19 @@
         <v>232</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -3991,19 +4153,22 @@
         <v>233</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4026,22 +4191,22 @@
         <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4064,22 +4229,22 @@
         <v>235</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4102,22 +4267,22 @@
         <v>236</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
